--- a/Database/New Data _ 20150608/Class.xlsx
+++ b/Database/New Data _ 20150608/Class.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="89">
   <si>
     <t>SE1007</t>
   </si>
@@ -112,30 +112,6 @@
     <t>Lớp</t>
   </si>
   <si>
-    <t>BA</t>
-  </si>
-  <si>
-    <t>FB</t>
-  </si>
-  <si>
-    <t>IA</t>
-  </si>
-  <si>
-    <t>EC</t>
-  </si>
-  <si>
-    <t>SE</t>
-  </si>
-  <si>
-    <t>GD</t>
-  </si>
-  <si>
-    <t>Ngành</t>
-  </si>
-  <si>
-    <t>Kỳ</t>
-  </si>
-  <si>
     <t>CSI101</t>
   </si>
   <si>
@@ -161,9 +137,6 @@
   </si>
   <si>
     <t>DRP101</t>
-  </si>
-  <si>
-    <t>AET101/HOD101</t>
   </si>
   <si>
     <t>ENL111</t>
@@ -306,6 +279,9 @@
   <si>
     <t>Môn 5
 (12 tuần)</t>
+  </si>
+  <si>
+    <t>AET101/HOD101</t>
   </si>
 </sst>
 </file>
@@ -344,7 +320,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -354,6 +330,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -380,14 +362,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -403,24 +382,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -436,7 +397,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -744,844 +715,653 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="I16" sqref="I14:I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B1" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="11">
-        <v>1</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="11">
-        <v>1</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="H3" s="15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="11">
-        <v>1</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="11">
-        <v>1</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="11">
-        <v>1</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="11">
-        <v>1</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="H7" s="15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="11">
-        <v>1</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="H8" s="15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="11">
-        <v>1</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="H9" s="15" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E9" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="11">
-        <v>1</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="H10" s="15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="E10" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="11">
-        <v>1</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="G11" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="H11" s="16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="B11" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="8"/>
+    </row>
+    <row r="12" spans="1:7" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="12">
-        <v>2</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="G12" s="19" t="s">
+      <c r="B12" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="H12" s="19" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="C12" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="11">
-        <v>2</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="G13" s="15" t="s">
+      <c r="B13" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="H13" s="15" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="C13" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="11">
-        <v>2</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="G14" s="15" t="s">
+      <c r="B14" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="H14" s="15" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C14" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="11">
-        <v>2</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="G15" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="H15" s="15" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="11">
-        <v>2</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="G16" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="H16" s="15" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="11">
-        <v>2</v>
-      </c>
-      <c r="D17" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="E17" s="15" t="s">
+      <c r="C20" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="F17" s="15" t="s">
+      <c r="D20" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="G17" s="15" t="s">
+      <c r="E20" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="H17" s="15" t="s">
+      <c r="F20" s="13" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="11">
-        <v>2</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="G18" s="7" t="s">
+    <row r="21" spans="1:6" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="H18" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="11">
-        <v>2</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="G19" s="7" t="s">
+    </row>
+    <row r="22" spans="1:6" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="F22" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="H19" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="12">
-        <v>3</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="E20" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="F20" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="G20" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="H20" s="19" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="13">
-        <v>3</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="G21" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="H21" s="15" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="13">
-        <v>3</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="E22" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="F22" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="G22" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="H22" s="15" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C23" s="13">
-        <v>3</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="E23" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="F23" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="G23" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="H23" s="15" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C24" s="13">
-        <v>3</v>
-      </c>
-      <c r="D24" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D28" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E24" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="F24" s="15" t="s">
+      <c r="E28" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="G24" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="H24" s="16" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" s="13">
-        <v>3</v>
-      </c>
-      <c r="D25" s="7" t="s">
+      <c r="F28" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="E25" s="7" t="s">
+    </row>
+    <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E30" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="F30" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="C31" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="H25" s="7" t="s">
+      <c r="D31" s="5" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C26" s="13">
-        <v>3</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F26" s="7" t="s">
+      <c r="E31" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="G26" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="H26" s="7" t="s">
+      <c r="C32" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D32" s="6" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C27" s="11">
-        <v>3</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="H27" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C28" s="12">
-        <v>4</v>
-      </c>
-      <c r="D28" s="6" t="s">
+      <c r="E32" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F32" s="6" t="s">
         <v>80</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="H28" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C29" s="11">
-        <v>4</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="H29" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C30" s="11">
-        <v>4</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="H30" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C31" s="12">
-        <v>5</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="H31" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C32" s="11">
-        <v>5</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="H32" s="7" t="s">
-        <v>89</v>
       </c>
     </row>
   </sheetData>
